--- a/watsonx-governance-l4-deploy/configuration_lab_files/FastMap_With_Errors.xlsx
+++ b/watsonx-governance-l4-deploy/configuration_lab_files/FastMap_With_Errors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericmartens/Documents/AI Governance/watsonxgov/l4 deploy/github files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DFAB4D-3058-A542-A841-4E632219A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B66989-5FFE-D242-95F7-F4D114312014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43720" yWindow="2500" windowWidth="30720" windowHeight="16880" tabRatio="915" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43720" yWindow="2500" windowWidth="30720" windowHeight="16880" tabRatio="915" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="273">
   <si>
     <t>ignoreReadOnlyWarnings</t>
   </si>
@@ -844,6 +844,9 @@
   </si>
   <si>
     <t>/GlobalCorp/Human Resources</t>
+  </si>
+  <si>
+    <t>/GlobalCorp</t>
   </si>
   <si>
     <t>ahassan@global.com</t>
@@ -1558,7 +1561,7 @@
         <v>240</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I2" s="34" t="s">
         <v>238</v>
@@ -1612,7 +1615,7 @@
         <v>209</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
@@ -1652,7 +1655,7 @@
         <v>208</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
@@ -1941,10 +1944,10 @@
         <v>106</v>
       </c>
       <c r="Q2" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R2" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>211</v>
@@ -1969,7 +1972,7 @@
         <v>60</v>
       </c>
       <c r="AC2" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AD2" s="11" t="s">
         <v>70</v>
@@ -2001,7 +2004,7 @@
         <v>66</v>
       </c>
       <c r="AO2" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP2" s="13">
         <v>44667</v>
@@ -2098,10 +2101,10 @@
         <v>106</v>
       </c>
       <c r="Q3" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R3" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="S3" s="15" t="s">
         <v>211</v>
@@ -2122,7 +2125,7 @@
         <v>60</v>
       </c>
       <c r="AC3" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AD3" s="15" t="s">
         <v>212</v>
@@ -2149,7 +2152,7 @@
         <v>66</v>
       </c>
       <c r="AO3" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP3" s="13">
         <v>44580</v>
@@ -2249,10 +2252,10 @@
         <v>106</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R4" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="S4" s="15" t="s">
         <v>211</v>
@@ -2277,7 +2280,7 @@
         <v>60</v>
       </c>
       <c r="AC4" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AD4" s="11" t="s">
         <v>70</v>
@@ -2309,7 +2312,7 @@
         <v>66</v>
       </c>
       <c r="AO4" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP4" s="13">
         <v>44667</v>
@@ -2379,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2479,7 +2482,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="11" t="str">
         <f>D2&amp;"-D001"</f>
@@ -2497,7 +2500,7 @@
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>203</v>
@@ -2541,7 +2544,7 @@
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>202</v>
@@ -2585,7 +2588,7 @@
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>202</v>
@@ -2601,9 +2604,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S4" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
-  <hyperlinks>
-    <hyperlink ref="L2:L4" r:id="rId1" display="ahassan@global.com" xr:uid="{CEC069E8-D9F9-3046-A547-05BB4F38E578}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2612,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A85E298-6061-564C-9359-E8ED810A6F48}">
   <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2672,7 +2672,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>11</v>
@@ -2786,10 +2786,10 @@
         <v>182</v>
       </c>
       <c r="H2" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I2" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>92</v>
@@ -2889,10 +2889,10 @@
         <v>183</v>
       </c>
       <c r="H3" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>92</v>
@@ -2992,10 +2992,10 @@
         <v>184</v>
       </c>
       <c r="H4" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>92</v>
@@ -3095,10 +3095,10 @@
         <v>185</v>
       </c>
       <c r="H5" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I5" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>92</v>
@@ -3198,10 +3198,10 @@
         <v>186</v>
       </c>
       <c r="H6" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I6" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>92</v>
@@ -3301,10 +3301,10 @@
         <v>187</v>
       </c>
       <c r="H7" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I7" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>92</v>
@@ -3404,10 +3404,10 @@
         <v>188</v>
       </c>
       <c r="H8" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I8" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>92</v>
@@ -3507,10 +3507,10 @@
         <v>189</v>
       </c>
       <c r="H9" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>92</v>
@@ -3610,10 +3610,10 @@
         <v>190</v>
       </c>
       <c r="H10" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I10" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>92</v>
@@ -3713,10 +3713,10 @@
         <v>191</v>
       </c>
       <c r="H11" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I11" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>92</v>
@@ -3816,10 +3816,10 @@
         <v>192</v>
       </c>
       <c r="H12" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I12" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>92</v>
@@ -3919,10 +3919,10 @@
         <v>193</v>
       </c>
       <c r="H13" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I13" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>92</v>
@@ -4022,10 +4022,10 @@
         <v>194</v>
       </c>
       <c r="H14" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>92</v>
@@ -4125,10 +4125,10 @@
         <v>195</v>
       </c>
       <c r="H15" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I15" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>92</v>
@@ -4216,7 +4216,7 @@
         <v>175</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>266</v>
@@ -4228,10 +4228,10 @@
         <v>182</v>
       </c>
       <c r="H16" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I16" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>92</v>
@@ -4318,7 +4318,7 @@
         <v>175</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>266</v>
@@ -4330,10 +4330,10 @@
         <v>183</v>
       </c>
       <c r="H17" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I17" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>92</v>
@@ -4420,7 +4420,7 @@
         <v>175</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>266</v>
@@ -4432,10 +4432,10 @@
         <v>184</v>
       </c>
       <c r="H18" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I18" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J18" s="21" t="s">
         <v>92</v>
@@ -4522,7 +4522,7 @@
         <v>175</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>266</v>
@@ -4534,10 +4534,10 @@
         <v>185</v>
       </c>
       <c r="H19" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I19" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J19" s="21" t="s">
         <v>92</v>
@@ -4624,7 +4624,7 @@
         <v>175</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>266</v>
@@ -4636,10 +4636,10 @@
         <v>186</v>
       </c>
       <c r="H20" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>92</v>
@@ -4726,7 +4726,7 @@
         <v>175</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>266</v>
@@ -4738,10 +4738,10 @@
         <v>187</v>
       </c>
       <c r="H21" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I21" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J21" s="21" t="s">
         <v>92</v>
@@ -4828,7 +4828,7 @@
         <v>175</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>266</v>
@@ -4840,10 +4840,10 @@
         <v>188</v>
       </c>
       <c r="H22" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I22" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>92</v>
@@ -4930,7 +4930,7 @@
         <v>175</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>266</v>
@@ -4942,10 +4942,10 @@
         <v>189</v>
       </c>
       <c r="H23" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I23" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>92</v>
@@ -5032,7 +5032,7 @@
         <v>175</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>266</v>
@@ -5044,10 +5044,10 @@
         <v>190</v>
       </c>
       <c r="H24" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I24" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J24" s="21" t="s">
         <v>92</v>
@@ -5134,7 +5134,7 @@
         <v>175</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>266</v>
@@ -5146,10 +5146,10 @@
         <v>191</v>
       </c>
       <c r="H25" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I25" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>92</v>
@@ -5236,7 +5236,7 @@
         <v>175</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>266</v>
@@ -5248,10 +5248,10 @@
         <v>192</v>
       </c>
       <c r="H26" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I26" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>92</v>
@@ -5338,7 +5338,7 @@
         <v>175</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>266</v>
@@ -5350,10 +5350,10 @@
         <v>193</v>
       </c>
       <c r="H27" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I27" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J27" s="21" t="s">
         <v>92</v>
@@ -5440,7 +5440,7 @@
         <v>175</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>266</v>
@@ -5452,10 +5452,10 @@
         <v>194</v>
       </c>
       <c r="H28" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I28" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J28" s="21" t="s">
         <v>92</v>
@@ -5542,7 +5542,7 @@
         <v>175</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>266</v>
@@ -5554,10 +5554,10 @@
         <v>195</v>
       </c>
       <c r="H29" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I29" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>92</v>
@@ -5644,7 +5644,7 @@
         <v>175</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>266</v>
@@ -5656,10 +5656,10 @@
         <v>182</v>
       </c>
       <c r="H30" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I30" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J30" s="25" t="s">
         <v>92</v>
@@ -5746,7 +5746,7 @@
         <v>175</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>266</v>
@@ -5758,10 +5758,10 @@
         <v>183</v>
       </c>
       <c r="H31" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I31" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I31" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J31" s="25" t="s">
         <v>92</v>
@@ -5848,7 +5848,7 @@
         <v>175</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>266</v>
@@ -5860,10 +5860,10 @@
         <v>184</v>
       </c>
       <c r="H32" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I32" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I32" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J32" s="25" t="s">
         <v>92</v>
@@ -5950,7 +5950,7 @@
         <v>175</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>266</v>
@@ -5962,10 +5962,10 @@
         <v>185</v>
       </c>
       <c r="H33" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I33" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J33" s="25" t="s">
         <v>92</v>
@@ -6052,7 +6052,7 @@
         <v>175</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>266</v>
@@ -6064,10 +6064,10 @@
         <v>186</v>
       </c>
       <c r="H34" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I34" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I34" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J34" s="25" t="s">
         <v>92</v>
@@ -6154,7 +6154,7 @@
         <v>175</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>266</v>
@@ -6166,10 +6166,10 @@
         <v>187</v>
       </c>
       <c r="H35" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I35" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I35" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J35" s="25" t="s">
         <v>92</v>
@@ -6256,7 +6256,7 @@
         <v>175</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>266</v>
@@ -6268,10 +6268,10 @@
         <v>188</v>
       </c>
       <c r="H36" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I36" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J36" s="25" t="s">
         <v>92</v>
@@ -6358,7 +6358,7 @@
         <v>175</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>266</v>
@@ -6370,10 +6370,10 @@
         <v>189</v>
       </c>
       <c r="H37" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I37" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I37" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J37" s="25" t="s">
         <v>92</v>
@@ -6460,7 +6460,7 @@
         <v>175</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>266</v>
@@ -6472,10 +6472,10 @@
         <v>190</v>
       </c>
       <c r="H38" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I38" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I38" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J38" s="25" t="s">
         <v>92</v>
@@ -6562,7 +6562,7 @@
         <v>175</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>266</v>
@@ -6574,10 +6574,10 @@
         <v>191</v>
       </c>
       <c r="H39" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I39" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I39" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J39" s="25" t="s">
         <v>92</v>
@@ -6664,7 +6664,7 @@
         <v>175</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>266</v>
@@ -6676,10 +6676,10 @@
         <v>192</v>
       </c>
       <c r="H40" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I40" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J40" s="25" t="s">
         <v>92</v>
@@ -6766,7 +6766,7 @@
         <v>175</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>266</v>
@@ -6778,10 +6778,10 @@
         <v>193</v>
       </c>
       <c r="H41" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I41" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I41" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J41" s="25" t="s">
         <v>92</v>
@@ -6868,7 +6868,7 @@
         <v>175</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>266</v>
@@ -6880,10 +6880,10 @@
         <v>194</v>
       </c>
       <c r="H42" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I42" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I42" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J42" s="25" t="s">
         <v>92</v>
@@ -6970,7 +6970,7 @@
         <v>175</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>266</v>
@@ -6982,10 +6982,10 @@
         <v>195</v>
       </c>
       <c r="H43" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I43" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="I43" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="J43" s="25" t="s">
         <v>92</v>
@@ -7065,8 +7065,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2:H43" r:id="rId1" display="dwilliams@global.com" xr:uid="{1CF3C919-D249-9D46-A9D0-F32E05E006C3}"/>
-    <hyperlink ref="I2:I43" r:id="rId2" display="amorales@global.com" xr:uid="{041E37B5-11E8-DA41-AB95-D06493AF1F87}"/>
+    <hyperlink ref="I2:I43" r:id="rId1" display="amorales@global.com" xr:uid="{041E37B5-11E8-DA41-AB95-D06493AF1F87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/watsonx-governance-l4-deploy/configuration_lab_files/FastMap_With_Errors.xlsx
+++ b/watsonx-governance-l4-deploy/configuration_lab_files/FastMap_With_Errors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericmartens/Documents/AI Governance/watsonxgov/l4 deploy/github files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B66989-5FFE-D242-95F7-F4D114312014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4F2BAA-07E4-2344-9F63-6DC7516A3B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43720" yWindow="2500" windowWidth="30720" windowHeight="16880" tabRatio="915" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43720" yWindow="2500" windowWidth="30720" windowHeight="16880" tabRatio="915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="3" r:id="rId1"/>
@@ -771,9 +771,6 @@
     <t>AI</t>
   </si>
   <si>
-    <t>Uses Foundation Models</t>
-  </si>
-  <si>
     <t>Proposed Solution</t>
   </si>
   <si>
@@ -862,6 +859,9 @@
   </si>
   <si>
     <t>MOD-00001-D003</t>
+  </si>
+  <si>
+    <t>Uses Generative AI</t>
   </si>
 </sst>
 </file>
@@ -1467,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1522,28 +1522,28 @@
         <v>241</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>12</v>
@@ -1552,7 +1552,7 @@
         <v>110</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>111</v>
@@ -1561,7 +1561,7 @@
         <v>240</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I2" s="34" t="s">
         <v>238</v>
@@ -1576,7 +1576,7 @@
         <v>242</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>58</v>
@@ -1588,16 +1588,16 @@
         <v>44636</v>
       </c>
       <c r="Q2" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="R2" s="36" t="s">
         <v>248</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>12</v>
@@ -1606,7 +1606,7 @@
         <v>110</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>206</v>
@@ -1615,7 +1615,7 @@
         <v>209</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
@@ -1637,7 +1637,7 @@
     <row r="4" spans="1:18" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>12</v>
@@ -1646,7 +1646,7 @@
         <v>110</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>207</v>
@@ -1655,7 +1655,7 @@
         <v>208</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
@@ -1721,7 +1721,7 @@
         <v>15</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>204</v>
@@ -1763,10 +1763,10 @@
         <v>25</v>
       </c>
       <c r="W1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="Y1" s="6" t="s">
         <v>26</v>
@@ -1871,46 +1871,46 @@
         <v>56</v>
       </c>
       <c r="BG1" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BH1" s="4" t="s">
         <v>107</v>
       </c>
       <c r="BI1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="BL1" s="4" t="s">
         <v>118</v>
       </c>
       <c r="BM1" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="BN1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:67" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>111</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>57</v>
@@ -1922,10 +1922,10 @@
         <v>62</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11" t="s">
@@ -1944,10 +1944,10 @@
         <v>106</v>
       </c>
       <c r="Q2" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R2" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>211</v>
@@ -1972,7 +1972,7 @@
         <v>60</v>
       </c>
       <c r="AC2" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD2" s="11" t="s">
         <v>70</v>
@@ -2004,7 +2004,7 @@
         <v>66</v>
       </c>
       <c r="AO2" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AP2" s="13">
         <v>44667</v>
@@ -2060,16 +2060,16 @@
     </row>
     <row r="3" spans="1:67" s="15" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>206</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>61</v>
@@ -2101,10 +2101,10 @@
         <v>106</v>
       </c>
       <c r="Q3" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R3" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S3" s="15" t="s">
         <v>211</v>
@@ -2125,7 +2125,7 @@
         <v>60</v>
       </c>
       <c r="AC3" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD3" s="15" t="s">
         <v>212</v>
@@ -2152,7 +2152,7 @@
         <v>66</v>
       </c>
       <c r="AO3" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AP3" s="13">
         <v>44580</v>
@@ -2209,16 +2209,16 @@
     <row r="4" spans="1:67" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>207</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>65</v>
@@ -2230,7 +2230,7 @@
         <v>67</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>205</v>
@@ -2252,10 +2252,10 @@
         <v>106</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R4" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S4" s="15" t="s">
         <v>211</v>
@@ -2280,7 +2280,7 @@
         <v>60</v>
       </c>
       <c r="AC4" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD4" s="11" t="s">
         <v>70</v>
@@ -2312,7 +2312,7 @@
         <v>66</v>
       </c>
       <c r="AO4" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AP4" s="13">
         <v>44667</v>
@@ -2382,7 +2382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2473,7 +2473,7 @@
     <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>60</v>
@@ -2482,7 +2482,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F2" s="11" t="str">
         <f>D2&amp;"-D001"</f>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>203</v>
@@ -2517,7 +2517,7 @@
     <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>60</v>
@@ -2526,7 +2526,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F3" s="11" t="str">
         <f>D3&amp;"-D002"</f>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>202</v>
@@ -2561,7 +2561,7 @@
     <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>60</v>
@@ -2570,7 +2570,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F4" s="11" t="str">
         <f>D4&amp;"-D003"</f>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>202</v>
@@ -2768,7 +2768,7 @@
     <row r="2" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>175</v>
@@ -2777,7 +2777,7 @@
         <v>176</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>133</v>
@@ -2786,10 +2786,10 @@
         <v>182</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>92</v>
@@ -2871,7 +2871,7 @@
     <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>175</v>
@@ -2880,7 +2880,7 @@
         <v>176</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>134</v>
@@ -2889,10 +2889,10 @@
         <v>183</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>92</v>
@@ -2974,7 +2974,7 @@
     <row r="4" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>175</v>
@@ -2983,7 +2983,7 @@
         <v>176</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>135</v>
@@ -2992,10 +2992,10 @@
         <v>184</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>92</v>
@@ -3077,7 +3077,7 @@
     <row r="5" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>175</v>
@@ -3086,7 +3086,7 @@
         <v>176</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>136</v>
@@ -3095,10 +3095,10 @@
         <v>185</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>92</v>
@@ -3180,7 +3180,7 @@
     <row r="6" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>175</v>
@@ -3189,7 +3189,7 @@
         <v>176</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>137</v>
@@ -3198,10 +3198,10 @@
         <v>186</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>92</v>
@@ -3283,7 +3283,7 @@
     <row r="7" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>175</v>
@@ -3292,7 +3292,7 @@
         <v>176</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>138</v>
@@ -3301,10 +3301,10 @@
         <v>187</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>92</v>
@@ -3386,7 +3386,7 @@
     <row r="8" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>175</v>
@@ -3395,7 +3395,7 @@
         <v>176</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>139</v>
@@ -3404,10 +3404,10 @@
         <v>188</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>92</v>
@@ -3489,7 +3489,7 @@
     <row r="9" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>175</v>
@@ -3498,7 +3498,7 @@
         <v>176</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>140</v>
@@ -3507,10 +3507,10 @@
         <v>189</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>92</v>
@@ -3592,7 +3592,7 @@
     <row r="10" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>175</v>
@@ -3601,7 +3601,7 @@
         <v>176</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>141</v>
@@ -3610,10 +3610,10 @@
         <v>190</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>92</v>
@@ -3695,7 +3695,7 @@
     <row r="11" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>175</v>
@@ -3704,7 +3704,7 @@
         <v>176</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>142</v>
@@ -3713,10 +3713,10 @@
         <v>191</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>92</v>
@@ -3798,7 +3798,7 @@
     <row r="12" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>175</v>
@@ -3807,7 +3807,7 @@
         <v>176</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>143</v>
@@ -3816,10 +3816,10 @@
         <v>192</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>92</v>
@@ -3901,7 +3901,7 @@
     <row r="13" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>175</v>
@@ -3910,7 +3910,7 @@
         <v>176</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>144</v>
@@ -3919,10 +3919,10 @@
         <v>193</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>92</v>
@@ -4004,7 +4004,7 @@
     <row r="14" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>175</v>
@@ -4013,7 +4013,7 @@
         <v>176</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>145</v>
@@ -4022,10 +4022,10 @@
         <v>194</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>92</v>
@@ -4107,7 +4107,7 @@
     <row r="15" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>175</v>
@@ -4116,7 +4116,7 @@
         <v>176</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>146</v>
@@ -4125,10 +4125,10 @@
         <v>195</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>92</v>
@@ -4210,16 +4210,16 @@
     <row r="16" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>147</v>
@@ -4228,10 +4228,10 @@
         <v>182</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>92</v>
@@ -4312,16 +4312,16 @@
     <row r="17" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>148</v>
@@ -4330,10 +4330,10 @@
         <v>183</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>92</v>
@@ -4414,16 +4414,16 @@
     <row r="18" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>149</v>
@@ -4432,10 +4432,10 @@
         <v>184</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J18" s="21" t="s">
         <v>92</v>
@@ -4516,16 +4516,16 @@
     <row r="19" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>150</v>
@@ -4534,10 +4534,10 @@
         <v>185</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J19" s="21" t="s">
         <v>92</v>
@@ -4618,16 +4618,16 @@
     <row r="20" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>151</v>
@@ -4636,10 +4636,10 @@
         <v>186</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>92</v>
@@ -4720,16 +4720,16 @@
     <row r="21" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>152</v>
@@ -4738,10 +4738,10 @@
         <v>187</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J21" s="21" t="s">
         <v>92</v>
@@ -4822,16 +4822,16 @@
     <row r="22" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
       <c r="B22" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>153</v>
@@ -4840,10 +4840,10 @@
         <v>188</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>92</v>
@@ -4924,16 +4924,16 @@
     <row r="23" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>154</v>
@@ -4942,10 +4942,10 @@
         <v>189</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>92</v>
@@ -5026,16 +5026,16 @@
     <row r="24" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>155</v>
@@ -5044,10 +5044,10 @@
         <v>190</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J24" s="21" t="s">
         <v>92</v>
@@ -5128,16 +5128,16 @@
     <row r="25" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>156</v>
@@ -5146,10 +5146,10 @@
         <v>191</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>92</v>
@@ -5230,16 +5230,16 @@
     <row r="26" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>157</v>
@@ -5248,10 +5248,10 @@
         <v>192</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>92</v>
@@ -5332,16 +5332,16 @@
     <row r="27" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>158</v>
@@ -5350,10 +5350,10 @@
         <v>193</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J27" s="21" t="s">
         <v>92</v>
@@ -5434,16 +5434,16 @@
     <row r="28" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>159</v>
@@ -5452,10 +5452,10 @@
         <v>194</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J28" s="21" t="s">
         <v>92</v>
@@ -5536,16 +5536,16 @@
     <row r="29" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>160</v>
@@ -5554,10 +5554,10 @@
         <v>195</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>92</v>
@@ -5638,16 +5638,16 @@
     <row r="30" spans="1:36" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="25"/>
       <c r="B30" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>161</v>
@@ -5656,10 +5656,10 @@
         <v>182</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J30" s="25" t="s">
         <v>92</v>
@@ -5740,16 +5740,16 @@
     <row r="31" spans="1:36" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="25"/>
       <c r="B31" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>162</v>
@@ -5758,10 +5758,10 @@
         <v>183</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J31" s="25" t="s">
         <v>92</v>
@@ -5842,16 +5842,16 @@
     <row r="32" spans="1:36" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
       <c r="B32" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>174</v>
@@ -5860,10 +5860,10 @@
         <v>184</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J32" s="25" t="s">
         <v>92</v>
@@ -5944,16 +5944,16 @@
     <row r="33" spans="1:36" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>163</v>
@@ -5962,10 +5962,10 @@
         <v>185</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J33" s="25" t="s">
         <v>92</v>
@@ -6046,16 +6046,16 @@
     <row r="34" spans="1:36" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="25"/>
       <c r="B34" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>164</v>
@@ -6064,10 +6064,10 @@
         <v>186</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J34" s="25" t="s">
         <v>92</v>
@@ -6148,16 +6148,16 @@
     <row r="35" spans="1:36" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="25"/>
       <c r="B35" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>165</v>
@@ -6166,10 +6166,10 @@
         <v>187</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J35" s="25" t="s">
         <v>92</v>
@@ -6250,16 +6250,16 @@
     <row r="36" spans="1:36" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>166</v>
@@ -6268,10 +6268,10 @@
         <v>188</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J36" s="25" t="s">
         <v>92</v>
@@ -6352,16 +6352,16 @@
     <row r="37" spans="1:36" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="25"/>
       <c r="B37" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>167</v>
@@ -6370,10 +6370,10 @@
         <v>189</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J37" s="25" t="s">
         <v>92</v>
@@ -6454,16 +6454,16 @@
     <row r="38" spans="1:36" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="25"/>
       <c r="B38" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>168</v>
@@ -6472,10 +6472,10 @@
         <v>190</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J38" s="25" t="s">
         <v>92</v>
@@ -6556,16 +6556,16 @@
     <row r="39" spans="1:36" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="25"/>
       <c r="B39" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>169</v>
@@ -6574,10 +6574,10 @@
         <v>191</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J39" s="25" t="s">
         <v>92</v>
@@ -6658,16 +6658,16 @@
     <row r="40" spans="1:36" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="25"/>
       <c r="B40" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>170</v>
@@ -6676,10 +6676,10 @@
         <v>192</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J40" s="25" t="s">
         <v>92</v>
@@ -6760,16 +6760,16 @@
     <row r="41" spans="1:36" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="25"/>
       <c r="B41" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>171</v>
@@ -6778,10 +6778,10 @@
         <v>193</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J41" s="25" t="s">
         <v>92</v>
@@ -6862,16 +6862,16 @@
     <row r="42" spans="1:36" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="25"/>
       <c r="B42" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>172</v>
@@ -6880,10 +6880,10 @@
         <v>194</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J42" s="25" t="s">
         <v>92</v>
@@ -6964,16 +6964,16 @@
     <row r="43" spans="1:36" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="25"/>
       <c r="B43" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>173</v>
@@ -6982,10 +6982,10 @@
         <v>195</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J43" s="25" t="s">
         <v>92</v>
